--- a/data/posco_parameters_consolidated.xlsx
+++ b/data/posco_parameters_consolidated.xlsx
@@ -17,6 +17,7 @@
     <sheet name="free_alloc_params" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="industry_targets_anchors" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="product_shares" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="scrap_supply" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -986,6 +987,245 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>scrap_available_Mt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B21" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B22" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B23" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B24" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B25" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1376,7 +1616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2199,6 +2439,261 @@
       </c>
       <c r="AA9" t="n">
         <v>217.64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>hydrogen_USD_per_kg_breakthrough</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>hydrogen_USD_per_kg_ultra</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hydrogen_USD_per_kg_zero</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/posco_parameters_consolidated.xlsx
+++ b/data/posco_parameters_consolidated.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="tech_routes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="process_intensity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ef_scope1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="fuel_prices" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="grid_CI" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="carbon_price" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="demand_path" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="free_alloc_params" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="industry_targets_anchors" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="product_shares" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="scrap_supply" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tech_routes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="process_intensity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ef_scope1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fuel_prices" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grid_CI" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand_path" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="free_alloc_params" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="industry_targets_anchors" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="product_shares" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scrap_supply" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="carbon_price" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,24 +597,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>flat_automotive_exposed_share</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>flat_other_share</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>long_share</t>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>scrap_available_Mt</t>
         </is>
       </c>
     </row>
@@ -623,13 +613,7 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -637,13 +621,7 @@
         <v>2026</v>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="4">
@@ -651,13 +629,7 @@
         <v>2027</v>
       </c>
       <c r="B4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="5">
@@ -665,13 +637,7 @@
         <v>2028</v>
       </c>
       <c r="B5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="6">
@@ -679,13 +645,7 @@
         <v>2029</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="7">
@@ -693,13 +653,7 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
@@ -707,13 +661,7 @@
         <v>2031</v>
       </c>
       <c r="B8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="9">
@@ -721,13 +669,7 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="10">
@@ -735,13 +677,7 @@
         <v>2033</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="11">
@@ -749,13 +685,7 @@
         <v>2034</v>
       </c>
       <c r="B11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.4</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="12">
@@ -763,13 +693,7 @@
         <v>2035</v>
       </c>
       <c r="B12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.4</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="13">
@@ -777,13 +701,7 @@
         <v>2036</v>
       </c>
       <c r="B13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="14">
@@ -791,13 +709,7 @@
         <v>2037</v>
       </c>
       <c r="B14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="15">
@@ -805,13 +717,7 @@
         <v>2038</v>
       </c>
       <c r="B15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="16">
@@ -819,13 +725,7 @@
         <v>2039</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="17">
@@ -833,13 +733,7 @@
         <v>2040</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +741,7 @@
         <v>2041</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="19">
@@ -861,13 +749,7 @@
         <v>2042</v>
       </c>
       <c r="B19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.4</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="20">
@@ -875,13 +757,7 @@
         <v>2043</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.4</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="21">
@@ -889,13 +765,7 @@
         <v>2044</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.4</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="22">
@@ -903,13 +773,7 @@
         <v>2045</v>
       </c>
       <c r="B22" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.4</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="23">
@@ -917,13 +781,7 @@
         <v>2046</v>
       </c>
       <c r="B23" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.4</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="24">
@@ -931,13 +789,7 @@
         <v>2047</v>
       </c>
       <c r="B24" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.4</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="25">
@@ -945,13 +797,7 @@
         <v>2048</v>
       </c>
       <c r="B25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="26">
@@ -959,13 +805,7 @@
         <v>2049</v>
       </c>
       <c r="B26" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.4</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="27">
@@ -973,13 +813,7 @@
         <v>2050</v>
       </c>
       <c r="B27" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.4</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -993,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,221 +838,1032 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>scenario</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>year</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>scrap_available_Mt</t>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>price_USD_per_tCO2</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>2025</v>
       </c>
-      <c r="B2" t="n">
-        <v>12</v>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2026</v>
       </c>
-      <c r="B3" t="n">
-        <v>12.3</v>
+      <c r="C3" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2027</v>
       </c>
-      <c r="B4" t="n">
-        <v>12.6</v>
+      <c r="C4" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>2028</v>
       </c>
-      <c r="B5" t="n">
-        <v>12.9</v>
+      <c r="C5" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2029</v>
       </c>
-      <c r="B6" t="n">
-        <v>13.2</v>
+      <c r="C6" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>2030</v>
       </c>
-      <c r="B7" t="n">
-        <v>13.5</v>
+      <c r="C7" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>2031</v>
       </c>
-      <c r="B8" t="n">
-        <v>13.65</v>
+      <c r="C8" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>2032</v>
       </c>
-      <c r="B9" t="n">
-        <v>13.8</v>
+      <c r="C9" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>2033</v>
       </c>
-      <c r="B10" t="n">
-        <v>13.95</v>
+      <c r="C10" t="n">
+        <v>382</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>2034</v>
       </c>
-      <c r="B11" t="n">
-        <v>14.1</v>
+      <c r="C11" t="n">
+        <v>382</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>2035</v>
       </c>
-      <c r="B12" t="n">
-        <v>14.25</v>
+      <c r="C12" t="n">
+        <v>382</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>2036</v>
       </c>
-      <c r="B13" t="n">
-        <v>14.4</v>
+      <c r="C13" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>2037</v>
       </c>
-      <c r="B14" t="n">
-        <v>14.55</v>
+      <c r="C14" t="n">
+        <v>411</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>2038</v>
       </c>
-      <c r="B15" t="n">
-        <v>14.7</v>
+      <c r="C15" t="n">
+        <v>426</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>2039</v>
       </c>
-      <c r="B16" t="n">
-        <v>14.85</v>
+      <c r="C16" t="n">
+        <v>440</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>2040</v>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
+      <c r="C17" t="n">
+        <v>455</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>2041</v>
       </c>
-      <c r="B18" t="n">
-        <v>15.1</v>
+      <c r="C18" t="n">
+        <v>471</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>2042</v>
       </c>
-      <c r="B19" t="n">
-        <v>15.2</v>
+      <c r="C19" t="n">
+        <v>487</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>2043</v>
       </c>
-      <c r="B20" t="n">
-        <v>15.3</v>
+      <c r="C20" t="n">
+        <v>504</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>2044</v>
       </c>
-      <c r="B21" t="n">
-        <v>15.4</v>
+      <c r="C21" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>2045</v>
       </c>
-      <c r="B22" t="n">
-        <v>15.5</v>
+      <c r="C22" t="n">
+        <v>536</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>2046</v>
       </c>
-      <c r="B23" t="n">
-        <v>15.6</v>
+      <c r="C23" t="n">
+        <v>556</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>2047</v>
       </c>
-      <c r="B24" t="n">
-        <v>15.7</v>
+      <c r="C24" t="n">
+        <v>577</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>2048</v>
       </c>
-      <c r="B25" t="n">
-        <v>15.8</v>
+      <c r="C25" t="n">
+        <v>597</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>2049</v>
       </c>
-      <c r="B26" t="n">
-        <v>15.9</v>
+      <c r="C26" t="n">
+        <v>618</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NGFS_NetZero2050</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>2050</v>
       </c>
-      <c r="B27" t="n">
-        <v>16</v>
+      <c r="C27" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2027</v>
+      </c>
+      <c r="C30" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C31" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C32" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C33" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2031</v>
+      </c>
+      <c r="C34" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2032</v>
+      </c>
+      <c r="C35" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2033</v>
+      </c>
+      <c r="C36" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2034</v>
+      </c>
+      <c r="C37" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2035</v>
+      </c>
+      <c r="C38" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C39" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2037</v>
+      </c>
+      <c r="C40" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C41" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2039</v>
+      </c>
+      <c r="C42" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C43" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2041</v>
+      </c>
+      <c r="C44" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C45" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2043</v>
+      </c>
+      <c r="C46" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2044</v>
+      </c>
+      <c r="C47" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2045</v>
+      </c>
+      <c r="C48" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2046</v>
+      </c>
+      <c r="C49" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2047</v>
+      </c>
+      <c r="C50" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C51" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2049</v>
+      </c>
+      <c r="C52" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NGFS_Below2C</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C53" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C55" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2027</v>
+      </c>
+      <c r="C56" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C57" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C58" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C59" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2031</v>
+      </c>
+      <c r="C60" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2032</v>
+      </c>
+      <c r="C61" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2033</v>
+      </c>
+      <c r="C62" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2034</v>
+      </c>
+      <c r="C63" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2035</v>
+      </c>
+      <c r="C64" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C65" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2037</v>
+      </c>
+      <c r="C66" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C67" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2039</v>
+      </c>
+      <c r="C68" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C69" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2041</v>
+      </c>
+      <c r="C70" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C71" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2043</v>
+      </c>
+      <c r="C72" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2044</v>
+      </c>
+      <c r="C73" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2045</v>
+      </c>
+      <c r="C74" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2046</v>
+      </c>
+      <c r="C75" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2047</v>
+      </c>
+      <c r="C76" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C77" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2049</v>
+      </c>
+      <c r="C78" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NGFS_NDCs</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C79" t="n">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3112,1056 +3757,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>scenario</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>price_USD_per_tCO2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2027</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2028</v>
-      </c>
-      <c r="C5" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2029</v>
-      </c>
-      <c r="C6" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2031</v>
-      </c>
-      <c r="C8" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2032</v>
-      </c>
-      <c r="C9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2033</v>
-      </c>
-      <c r="C10" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2034</v>
-      </c>
-      <c r="C11" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2035</v>
-      </c>
-      <c r="C12" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2036</v>
-      </c>
-      <c r="C13" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2037</v>
-      </c>
-      <c r="C14" t="n">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2038</v>
-      </c>
-      <c r="C15" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2039</v>
-      </c>
-      <c r="C16" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C17" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2041</v>
-      </c>
-      <c r="C18" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2042</v>
-      </c>
-      <c r="C19" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2043</v>
-      </c>
-      <c r="C20" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2044</v>
-      </c>
-      <c r="C21" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2045</v>
-      </c>
-      <c r="C22" t="n">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2046</v>
-      </c>
-      <c r="C23" t="n">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2047</v>
-      </c>
-      <c r="C24" t="n">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2048</v>
-      </c>
-      <c r="C25" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2049</v>
-      </c>
-      <c r="C26" t="n">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>NGFS_NetZero2050</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C27" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C28" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C29" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2027</v>
-      </c>
-      <c r="C30" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2028</v>
-      </c>
-      <c r="C31" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2029</v>
-      </c>
-      <c r="C32" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C33" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2031</v>
-      </c>
-      <c r="C34" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2032</v>
-      </c>
-      <c r="C35" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2033</v>
-      </c>
-      <c r="C36" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2034</v>
-      </c>
-      <c r="C37" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2035</v>
-      </c>
-      <c r="C38" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2036</v>
-      </c>
-      <c r="C39" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2037</v>
-      </c>
-      <c r="C40" t="n">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2038</v>
-      </c>
-      <c r="C41" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2039</v>
-      </c>
-      <c r="C42" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C43" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2041</v>
-      </c>
-      <c r="C44" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2042</v>
-      </c>
-      <c r="C45" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2043</v>
-      </c>
-      <c r="C46" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2044</v>
-      </c>
-      <c r="C47" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2045</v>
-      </c>
-      <c r="C48" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2046</v>
-      </c>
-      <c r="C49" t="n">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2047</v>
-      </c>
-      <c r="C50" t="n">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2048</v>
-      </c>
-      <c r="C51" t="n">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2049</v>
-      </c>
-      <c r="C52" t="n">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>NGFS_Below2C</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C53" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C54" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2026</v>
-      </c>
-      <c r="C55" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2027</v>
-      </c>
-      <c r="C56" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2028</v>
-      </c>
-      <c r="C57" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2029</v>
-      </c>
-      <c r="C58" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2030</v>
-      </c>
-      <c r="C59" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2031</v>
-      </c>
-      <c r="C60" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2032</v>
-      </c>
-      <c r="C61" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2033</v>
-      </c>
-      <c r="C62" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2034</v>
-      </c>
-      <c r="C63" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2035</v>
-      </c>
-      <c r="C64" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2036</v>
-      </c>
-      <c r="C65" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2037</v>
-      </c>
-      <c r="C66" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2038</v>
-      </c>
-      <c r="C67" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2039</v>
-      </c>
-      <c r="C68" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C69" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2041</v>
-      </c>
-      <c r="C70" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>2042</v>
-      </c>
-      <c r="C71" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2043</v>
-      </c>
-      <c r="C72" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2044</v>
-      </c>
-      <c r="C73" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>2045</v>
-      </c>
-      <c r="C74" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>2046</v>
-      </c>
-      <c r="C75" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2047</v>
-      </c>
-      <c r="C76" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2048</v>
-      </c>
-      <c r="C77" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2049</v>
-      </c>
-      <c r="C78" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>NGFS_NDCs</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C79" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4395,7 +3990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4426,7 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4479,4 +4074,409 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>flat_automotive_exposed_share</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>flat_other_share</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>long_share</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>